--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lokeswaradevarasetty/Pictures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lokeswaradevarasetty/Desktop/newfolder/sampletestforpractice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E869385-76DB-0F4F-B2A4-D40A5E517748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5567CFC6-0B7E-574A-BBF6-CA40A23ED05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="620" windowWidth="26740" windowHeight="15680" xr2:uid="{A4DCB074-AB57-5E43-BE17-B0D379CD8044}"/>
   </bookViews>
@@ -35,12 +35,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>credit card bill of october</t>
   </si>
   <si>
     <t>before credit card paayment not done of october month</t>
+  </si>
+  <si>
+    <t>lokeswara</t>
   </si>
 </sst>
 </file>
@@ -404,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3EF687-C515-5045-8E45-56BD42F472A8}">
-  <dimension ref="G10:P43"/>
+  <dimension ref="D10:P43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -465,7 +468,7 @@
         <v>22417.770000000004</v>
       </c>
     </row>
-    <row r="17" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:16" x14ac:dyDescent="0.2">
       <c r="G17">
         <f>H16+1840</f>
         <v>24257.770000000004</v>
@@ -479,13 +482,13 @@
         <v>12499</v>
       </c>
     </row>
-    <row r="18" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:16" x14ac:dyDescent="0.2">
       <c r="H18">
         <f>H17-I17</f>
         <v>9818.7700000000041</v>
       </c>
     </row>
-    <row r="19" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:16" x14ac:dyDescent="0.2">
       <c r="G19">
         <f>I17+H19</f>
         <v>20857.770000000004</v>
@@ -499,7 +502,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="20" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:16" x14ac:dyDescent="0.2">
       <c r="I20">
         <f>400</f>
         <v>400</v>
@@ -512,7 +515,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:16" x14ac:dyDescent="0.2">
       <c r="I21">
         <f>200</f>
         <v>200</v>
@@ -527,7 +530,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:16" x14ac:dyDescent="0.2">
       <c r="H22" s="1">
         <f>20286.32</f>
         <v>20286.32</v>
@@ -550,7 +553,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:16" x14ac:dyDescent="0.2">
       <c r="H23" s="1">
         <f>10589</f>
         <v>10589</v>
@@ -565,7 +568,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:16" x14ac:dyDescent="0.2">
       <c r="H24" s="1">
         <f>H22-H23</f>
         <v>9697.32</v>
@@ -580,7 +583,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:16" x14ac:dyDescent="0.2">
       <c r="I25">
         <f>12499+8102</f>
         <v>20601</v>
@@ -596,7 +599,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:16" x14ac:dyDescent="0.2">
       <c r="H26">
         <f>H24-J22</f>
         <v>8237.32</v>
@@ -608,7 +611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:16" x14ac:dyDescent="0.2">
       <c r="G27">
         <f>H26+I17</f>
         <v>20736.32</v>
@@ -624,7 +627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:16" x14ac:dyDescent="0.2">
       <c r="G28">
         <f>H27+I17</f>
         <v>20236.32</v>
@@ -636,7 +639,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:16" x14ac:dyDescent="0.2">
       <c r="L29">
         <v>12</v>
       </c>
@@ -644,7 +647,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>2</v>
+      </c>
       <c r="L30">
         <v>25</v>
       </c>
@@ -655,7 +661,7 @@
         <v>104.22</v>
       </c>
     </row>
-    <row r="31" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:16" x14ac:dyDescent="0.2">
       <c r="L31">
         <v>12</v>
       </c>
@@ -666,7 +672,7 @@
         <v>102.85</v>
       </c>
     </row>
-    <row r="32" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:16" x14ac:dyDescent="0.2">
       <c r="L32">
         <v>25</v>
       </c>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lokeswaradevarasetty/Desktop/newfolder/sampletestforpractice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5567CFC6-0B7E-574A-BBF6-CA40A23ED05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591A9CE3-3EA8-8D40-AEA0-3CA3C8E10059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="620" windowWidth="26740" windowHeight="15680" xr2:uid="{A4DCB074-AB57-5E43-BE17-B0D379CD8044}"/>
   </bookViews>
